--- a/templates/dataplant/RNASeq_assay.xlsx
+++ b/templates/dataplant/RNASeq_assay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D40E0F-C778-497E-A881-A07B2221FDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCB632C-F7CA-4207-8A5D-C681254DFD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>Source Name</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Transcriptomics</t>
   </si>
   <si>
-    <t>mRNASeq</t>
-  </si>
-  <si>
     <t>Jabeen</t>
   </si>
   <si>
@@ -322,27 +319,12 @@
     <t>Protocol REF</t>
   </si>
   <si>
-    <t>assay protocol</t>
-  </si>
-  <si>
     <t>DPBO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000177</t>
-  </si>
-  <si>
-    <t>RNA-seq</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000003</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
   </si>
   <si>
-    <t>NCIT</t>
-  </si>
-  <si>
     <t>Term Source REF (DPBO:0000035)</t>
   </si>
   <si>
@@ -467,6 +449,18 @@
   </si>
   <si>
     <t>RNASeq assay</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>OBI:0000070</t>
+  </si>
+  <si>
+    <t>RNA-Seq</t>
+  </si>
+  <si>
+    <t>EFO:0008896</t>
   </si>
 </sst>
 </file>
@@ -1236,139 +1230,139 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" t="s">
         <v>101</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" t="s">
-        <v>107</v>
       </c>
       <c r="Y1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AK1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL1" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO1" t="s">
         <v>82</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>83</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>89</v>
       </c>
       <c r="AQ1" t="s">
         <v>2</v>
       </c>
       <c r="AR1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AS1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AT1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
@@ -1377,114 +1371,114 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AT2" s="12"/>
     </row>
@@ -1494,66 +1488,66 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -1568,22 +1562,22 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AT3" s="12"/>
     </row>
@@ -1593,57 +1587,57 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1658,13 +1652,13 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
@@ -1677,48 +1671,48 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1757,7 +1751,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1787,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1803,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1859,7 +1853,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1867,44 +1861,33 @@
         <v>29</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1920,10 +1903,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1933,10 +1916,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1997,7 +1980,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2006,7 +1989,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2015,7 +1998,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2024,7 +2007,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>

--- a/templates/dataplant/RNASeq_assay.xlsx
+++ b/templates/dataplant/RNASeq_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -185,7 +185,7 @@
     <t>Term Accession Number (DPBO:0000015)</t>
   </si>
   <si>
-    <t>Parameter [library preparation kit]</t>
+    <t>Component [library preparation kit]</t>
   </si>
   <si>
     <t>Term Source REF (GENEPIO:0000085)</t>
@@ -224,7 +224,7 @@
     <t>Term Accession Number (DPBO:0000016)</t>
   </si>
   <si>
-    <t>Parameter [next generation sequencing instrument model]</t>
+    <t>Component [next generation sequencing instrument model]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000040)</t>
@@ -233,7 +233,7 @@
     <t>Term Accession Number (DPBO:0000040)</t>
   </si>
   <si>
-    <t>Parameter [base-calling software]</t>
+    <t>Component [base-calling software]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000017)</t>
@@ -308,7 +308,7 @@
     <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000087</t>
   </si>
   <si>
-    <t xml:space="preserve">TruSeq RNA Sample Prep Kit </t>
+    <t>TruSeq RNA Sample Prep Kit</t>
   </si>
   <si>
     <t>v2</t>
@@ -332,19 +332,16 @@
     <t>Illumina HiSeq 2000</t>
   </si>
   <si>
-    <t>OBI</t>
-  </si>
-  <si>
-    <t>https://bioregistry.io/OBI:0002001</t>
+    <t>https://bioregistry.io/EFO:0004203</t>
   </si>
   <si>
     <t>Illumina Casava</t>
   </si>
   <si>
+    <t>1.70</t>
+  </si>
+  <si>
     <t>user-specific</t>
-  </si>
-  <si>
-    <t>1.70</t>
   </si>
   <si>
     <t>R1</t>
@@ -470,7 +467,7 @@
     <tableColumn id="12" name="Parameter [library layout]" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Parameter [library preparation kit]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Component [library preparation kit]" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Source REF (GENEPIO:0000085)" totalsRowFunction="none"/>
     <tableColumn id="17" name="Term Accession Number (GENEPIO:0000085)" totalsRowFunction="none"/>
     <tableColumn id="18" name="Parameter [library preparation kit version]" totalsRowFunction="none"/>
@@ -483,10 +480,10 @@
     <tableColumn id="25" name="Unit" totalsRowFunction="none"/>
     <tableColumn id="26" name="Term Source REF (DPBO:0000016)" totalsRowFunction="none"/>
     <tableColumn id="27" name="Term Accession Number (DPBO:0000016)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Parameter [next generation sequencing instrument model]" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Component [next generation sequencing instrument model]" totalsRowFunction="none"/>
     <tableColumn id="29" name="Term Source REF (DPBO:0000040)" totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Accession Number (DPBO:0000040)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Parameter [base-calling software]" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Component [base-calling software]" totalsRowFunction="none"/>
     <tableColumn id="32" name="Term Source REF (DPBO:0000017)" totalsRowFunction="none"/>
     <tableColumn id="33" name="Term Accession Number (DPBO:0000017)" totalsRowFunction="none"/>
     <tableColumn id="34" name="Parameter [base-calling software version]" totalsRowFunction="none"/>
@@ -1227,22 +1224,22 @@
         <v>105</v>
       </c>
       <c r="AC2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD2" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" t="s">
         <v>108</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>110</v>
       </c>
       <c r="AI2" t="s">
         <v>109</v>
@@ -1260,7 +1257,7 @@
         <v>89</v>
       </c>
       <c r="AN2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="s">
         <v>109</v>
@@ -1269,7 +1266,7 @@
         <v>89</v>
       </c>
       <c r="AQ2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AR2" t="s">
         <v>109</v>
